--- a/MainTop/13.05.2025/печать_sorted.xlsx
+++ b/MainTop/13.05.2025/печать_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\13.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52171579-51E9-4FED-B5EF-53D528735993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EAECCA-C0E6-4D64-9A1F-2D95A71287BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,13 +247,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
@@ -285,13 +291,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,7 +604,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C62"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,508 +789,508 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>6</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>6</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>6</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>6</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="3">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="3">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="3">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>2</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>2</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>2</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>2</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>2</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>2</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>8</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>8</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>8</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>8</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>8</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>8</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>8</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>58</v>
       </c>
     </row>
